--- a/data/trans_camb/P1804-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1804-Edad-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1804-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1804-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,33 +540,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -542,6 +612,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,12 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>6,6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8,43</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8,15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7,49</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,44</t>
         </is>
       </c>
     </row>
@@ -584,12 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,45; 9,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,73</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5,99; 11,8</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 13,01</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5,86; 9,56</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 7,16</t>
         </is>
       </c>
     </row>
@@ -607,12 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -638,6 +804,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -657,12 +853,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>4,79</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,99</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10,45</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10,43</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7,55</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8,84</t>
         </is>
       </c>
     </row>
@@ -680,12 +906,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,21; 6,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,8; 11,49</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8,02; 13,04</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7,53; 13,79</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6,2; 9,23</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6,54; 11,28</t>
         </is>
       </c>
     </row>
@@ -703,12 +959,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -734,6 +1020,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -753,12 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>3,86</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,83</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,0</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7,82</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,42</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,36</t>
         </is>
       </c>
     </row>
@@ -776,12 +1122,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,44; 5,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,09; 7,18</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 11,32</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 9,68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,22; 7,97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 8,02</t>
         </is>
       </c>
     </row>
@@ -799,12 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -830,6 +1236,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -849,12 +1285,42 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>5,18</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6,09</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6,23</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6,95</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5,7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6,52</t>
         </is>
       </c>
     </row>
@@ -872,12 +1338,42 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,69; 7,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,1; 8,49</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4,58; 8,41</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 8,73</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4,58; 7,11</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 7,95</t>
         </is>
       </c>
     </row>
@@ -895,12 +1391,42 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -926,6 +1452,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -945,12 +1501,42 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>7,96</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6,94</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10,79</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>8,03</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7,48</t>
         </is>
       </c>
     </row>
@@ -968,12 +1554,42 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,52; 10,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,15; 9,47</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 13,92</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 9,88</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>7,68; 11,66</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 8,91</t>
         </is>
       </c>
     </row>
@@ -991,12 +1607,42 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1022,6 +1668,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1041,12 +1717,42 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
+          <t>10,22</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>7,73</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>13,64</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>7,45</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>12,16</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>7,57</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1770,42 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,9; 13,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,28; 9,54</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>11,05; 16,63</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>5,38; 9,09</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>10,35; 14,1</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>5,92; 8,7</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1823,42 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1118,6 +1884,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1137,12 +1933,42 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
+          <t>6,3</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>5,92</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>9,93</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>7,95</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>8,15</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>6,99</t>
         </is>
       </c>
     </row>
@@ -1160,12 +1986,42 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,44; 7,17</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,11; 7,11</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>8,83; 10,97</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>7,0; 8,91</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>7,43; 8,87</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 7,67</t>
         </is>
       </c>
     </row>
@@ -1183,12 +2039,42 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1214,6 +2100,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1223,10 +2139,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_camb/P1804-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1804-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>4,08</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,73</t>
+          <t>0,0; 5,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,74; 13,01</t>
+          <t>4,85; 13,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 7,16</t>
+          <t>2,34; 6,64</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,43</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,84</t>
+          <t>8,29</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 11,49</t>
+          <t>3,9; 11,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 13,79</t>
+          <t>5,23; 12,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,54; 11,28</t>
+          <t>5,66; 10,6</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>6,28</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,18</t>
+          <t>3,01; 7,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,95; 9,68</t>
+          <t>5,96; 9,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,02</t>
+          <t>4,99; 7,95</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,52</t>
+          <t>5,61</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,49</t>
+          <t>1,81; 7,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,6; 8,73</t>
+          <t>5,33; 8,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,34; 7,95</t>
+          <t>3,55; 7,24</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>8,03</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>7,5</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,15; 9,47</t>
+          <t>5,19; 9,53</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,46; 9,88</t>
+          <t>6,53; 9,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,24; 8,91</t>
+          <t>6,28; 8,93</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>10,22</t>
+          <t>11,15</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>8,36</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1732,12 +1732,12 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>13,64</t>
+          <t>11,52</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>12,16</t>
+          <t>11,35</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>6,52</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>7,9; 13,01</t>
+          <t>8,12; 15,34</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,54</t>
+          <t>6,27; 10,73</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>11,05; 16,63</t>
+          <t>8,69; 15,62</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,38; 9,09</t>
+          <t>2,17; 8,66</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>10,35; 14,1</t>
+          <t>9,05; 14,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5,92; 8,7</t>
+          <t>3,4; 8,65</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>9,93</t>
+          <t>15,63</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>7,95</t>
+          <t>8,62</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>13,04</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>8,02</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,44; 7,17</t>
+          <t>6,16; 12,78</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,11</t>
+          <t>5,06; 9,73</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,83; 10,97</t>
+          <t>11,71; 20,22</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>7,0; 8,91</t>
+          <t>6,89; 10,74</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>7,43; 8,87</t>
+          <t>10,24; 16,26</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6,39; 7,67</t>
+          <t>6,63; 9,68</t>
         </is>
       </c>
     </row>
@@ -2132,14 +2132,231 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>6,3</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>5,52</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>9,93</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>7,57</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>8,15</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>6,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 7,17</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>4,43; 6,58</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>8,83; 10,97</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>6,17; 8,56</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>7,43; 8,87</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 7,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P1804-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1804-Edad-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 9,41</t>
+          <t>4,29; 9,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,18</t>
+          <t>0,0; 4,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,99; 11,8</t>
+          <t>5,93; 11,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 13,39</t>
+          <t>4,56; 13,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 9,56</t>
+          <t>5,87; 9,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,64</t>
+          <t>2,34; 6,73</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,65</t>
+          <t>3,16; 6,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 11,75</t>
+          <t>4,14; 11,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,02; 13,04</t>
+          <t>7,96; 12,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 12,62</t>
+          <t>5,46; 12,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,2; 9,23</t>
+          <t>6,08; 9,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 10,6</t>
+          <t>5,96; 10,79</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,49</t>
+          <t>2,53; 5,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,02</t>
+          <t>2,93; 7,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,79; 11,32</t>
+          <t>6,88; 11,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,68</t>
+          <t>6,22; 9,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 7,97</t>
+          <t>5,17; 7,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,99; 7,95</t>
+          <t>4,97; 7,72</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,45</t>
+          <t>3,6; 7,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,4</t>
+          <t>1,95; 7,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,41</t>
+          <t>4,45; 8,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,53</t>
+          <t>5,16; 8,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,11</t>
+          <t>4,58; 7,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,55; 7,24</t>
+          <t>3,14; 7,19</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,52; 10,79</t>
+          <t>5,64; 10,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,19; 9,53</t>
+          <t>5,1; 9,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,92</t>
+          <t>7,97; 13,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,53; 9,94</t>
+          <t>6,59; 10,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,66</t>
+          <t>7,56; 11,72</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,93</t>
+          <t>6,29; 9,12</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>8,12; 15,34</t>
+          <t>8,02; 15,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,27; 10,73</t>
+          <t>6,36; 10,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>8,69; 15,62</t>
+          <t>8,44; 15,03</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,17; 8,66</t>
+          <t>2,28; 8,68</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>9,05; 14,0</t>
+          <t>9,23; 14,05</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,4; 8,65</t>
+          <t>3,36; 8,76</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,16; 12,78</t>
+          <t>6,11; 12,49</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,73</t>
+          <t>5,02; 10,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>11,71; 20,22</t>
+          <t>11,44; 19,85</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,89; 10,74</t>
+          <t>6,76; 10,57</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>10,24; 16,26</t>
+          <t>10,5; 16,25</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6,63; 9,68</t>
+          <t>6,62; 9,73</t>
         </is>
       </c>
     </row>
@@ -2202,12 +2202,12 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>5,44; 7,17</t>
+          <t>5,47; 7,2</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>4,43; 6,58</t>
+          <t>4,26; 6,48</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2217,12 +2217,12 @@
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>8,83; 10,97</t>
+          <t>8,89; 10,87</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>6,17; 8,56</t>
+          <t>6,21; 8,6</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>7,43; 8,87</t>
+          <t>7,54; 8,8</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>5,6; 7,27</t>
+          <t>5,65; 7,27</t>
         </is>
       </c>
     </row>
